--- a/Data Process.xlsx
+++ b/Data Process.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kumpulan Program Saut\smpkelas\smpkelas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CFFEA-81EB-4D61-AD12-AD9C3BAF6356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7243F0BE-D274-416C-A444-9789D69D1C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AF3EB7A7-8687-4FBB-B0B4-729970815611}"/>
   </bookViews>
@@ -958,7 +958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -974,15 +974,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1326,10 +1317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6FEEC5-7844-4374-80D9-FC492DFD1A7B}">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G250"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,31 +1341,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="7" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="A2" s="8"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="4" t="s">
         <v>258</v>
       </c>
@@ -1387,7 +1379,7 @@
       <c r="F3" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
@@ -1408,7 +1400,9 @@
       <c r="F4" s="3">
         <v>84.9</v>
       </c>
-      <c r="G4" s="9"/>
+      <c r="G4" s="5" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2142,8 +2136,8 @@
       <c r="F36" s="3">
         <v>81</v>
       </c>
-      <c r="G36" s="5" t="s">
-        <v>250</v>
+      <c r="G36" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2856,7 +2850,7 @@
         <v>77.5</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -3592,7 +3586,7 @@
         <v>79.400000000000006</v>
       </c>
       <c r="G99" s="6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -4328,7 +4322,7 @@
         <v>85.5</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -5041,7 +5035,7 @@
         <v>83.6</v>
       </c>
       <c r="G162" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -5731,7 +5725,7 @@
         <v>81.7</v>
       </c>
       <c r="G192" s="6" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
@@ -6398,7 +6392,7 @@
         <v>80</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
@@ -7068,18 +7062,14 @@
         <v>257</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G251" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G1:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
